--- a/Course Data.xlsx
+++ b/Course Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UoE\OR\Term2\Topics in Applied Operational Research\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\TAOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3EBC76-3404-4508-8C78-F66A79532BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C940CDD-808B-4024-9D5B-8D45BB516570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{39025E2A-190E-46CD-B059-5FB8E8FAA327}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39025E2A-190E-46CD-B059-5FB8E8FAA327}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_data" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Course Name</t>
   </si>
@@ -717,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2633601-4321-4838-8A13-F58C50D5CF60}">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -728,9 +728,10 @@
     <col min="2" max="2" width="16.1796875" customWidth="1"/>
     <col min="3" max="3" width="18.36328125" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -743,8 +744,11 @@
       <c r="D1" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -757,8 +761,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -771,8 +778,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -785,8 +795,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -799,8 +812,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -813,8 +829,11 @@
       <c r="D6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -827,8 +846,11 @@
       <c r="D7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -841,8 +863,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -855,8 +880,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -869,8 +897,11 @@
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -883,8 +914,11 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -897,8 +931,11 @@
       <c r="D12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -911,8 +948,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -925,8 +965,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -939,8 +982,11 @@
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -953,8 +999,11 @@
       <c r="D16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -967,8 +1016,11 @@
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -981,8 +1033,11 @@
       <c r="D18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -995,8 +1050,11 @@
       <c r="D19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1009,8 +1067,11 @@
       <c r="D20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1023,8 +1084,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1037,8 +1101,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1051,8 +1118,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1065,8 +1135,11 @@
       <c r="D24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1079,8 +1152,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1093,8 +1169,11 @@
       <c r="D26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1107,8 +1186,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1121,8 +1203,11 @@
       <c r="D28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1135,8 +1220,11 @@
       <c r="D29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1149,8 +1237,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1163,8 +1254,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1177,8 +1271,11 @@
       <c r="D32" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1191,8 +1288,11 @@
       <c r="D33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1205,8 +1305,11 @@
       <c r="D34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1219,8 +1322,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1233,8 +1339,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1247,8 +1356,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1261,8 +1373,11 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1275,8 +1390,11 @@
       <c r="D39">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1289,8 +1407,11 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1303,8 +1424,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1317,8 +1441,11 @@
       <c r="D42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1331,8 +1458,11 @@
       <c r="D43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1345,8 +1475,11 @@
       <c r="D44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1359,8 +1492,11 @@
       <c r="D45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1372,6 +1508,9 @@
       </c>
       <c r="D46">
         <v>2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1381,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CD7528-6048-4F58-99D5-73850C3A8FE2}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2334,18 +2473,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Course Data.xlsx
+++ b/Course Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\TAOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C940CDD-808B-4024-9D5B-8D45BB516570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC24BC7-822B-462C-8F1B-FD37AF467962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{39025E2A-190E-46CD-B059-5FB8E8FAA327}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>Course Name</t>
   </si>
@@ -719,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2633601-4321-4838-8A13-F58C50D5CF60}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1079,7 +1079,7 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1265,11 +1265,11 @@
       <c r="B32">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" t="s">
-        <v>98</v>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
       <c r="E32" t="s">
         <v>72</v>
@@ -1522,7 +1522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2CD7528-6048-4F58-99D5-73850C3A8FE2}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C46"/>
     </sheetView>
   </sheetViews>

--- a/Course Data.xlsx
+++ b/Course Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamranahmadov/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\TAOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9D54F4F-DBD1-4949-873E-30C799F07715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F45A224E-B745-4FAD-8CB9-24CD0B5D6E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{39025E2A-190E-46CD-B059-5FB8E8FAA327}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{39025E2A-190E-46CD-B059-5FB8E8FAA327}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_data" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
   <si>
     <t>Course Name</t>
   </si>
@@ -478,6 +478,9 @@
   </si>
   <si>
     <t>MATH07003</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -908,15 +911,15 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
+    <col min="3" max="3" width="18.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -933,7 +936,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -950,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -967,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -984,7 +987,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1035,7 +1038,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1052,7 +1055,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1086,7 +1089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1120,7 +1123,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1188,7 +1191,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1205,7 +1208,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1273,7 +1276,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1307,7 +1310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1375,7 +1378,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1460,7 +1463,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1477,7 +1480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1562,7 +1565,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1579,7 +1582,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1613,7 +1616,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1647,7 +1650,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1664,7 +1667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1698,7 +1701,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1715,7 +1718,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1745,16 +1748,16 @@
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
-    <col min="4" max="4" width="3.1640625" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" customWidth="1"/>
+    <col min="4" max="4" width="3.1796875" customWidth="1"/>
+    <col min="5" max="5" width="4.6328125" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1777,7 +1780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1864,7 +1867,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1887,7 +1890,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1933,7 +1936,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2005,7 +2008,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2028,7 +2031,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2051,7 +2054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2074,7 +2077,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2143,7 +2146,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2166,7 +2169,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2212,7 +2215,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2304,7 +2307,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2327,7 +2330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2350,7 +2353,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2396,7 +2399,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2488,7 +2491,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2511,7 +2514,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2534,7 +2537,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2580,7 +2583,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2603,7 +2606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2626,7 +2629,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2649,7 +2652,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2718,7 +2721,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2787,7 +2790,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2810,7 +2813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2856,7 +2859,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2888,19 +2891,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{534F3B3F-4D12-4840-B2DC-3D821E491B30}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.5" customWidth="1"/>
-    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5" customWidth="1"/>
+    <col min="1" max="1" width="47.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.453125" customWidth="1"/>
+    <col min="3" max="3" width="31.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>120</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>119</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>118</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>117</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>116</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>115</v>
       </c>
@@ -3000,11 +3003,20 @@
       <c r="C7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="B8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" t="s">
+        <v>146</v>
+      </c>
       <c r="D8" t="s">
         <v>138</v>
       </c>
@@ -3012,76 +3024,130 @@
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3097,12 +3163,12 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>124</v>
       </c>
@@ -3110,7 +3176,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>119</v>
       </c>
@@ -3118,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>120</v>
       </c>
@@ -3126,7 +3192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -3134,7 +3200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>118</v>
       </c>
@@ -3142,7 +3208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -3150,7 +3216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -3158,7 +3224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -3166,7 +3232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>122</v>
       </c>
@@ -3174,7 +3240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -3182,7 +3248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -3190,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -3198,7 +3264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -3206,7 +3272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>121</v>
       </c>
@@ -3214,7 +3280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -3222,7 +3288,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -3230,7 +3296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>108</v>
       </c>
@@ -3247,13 +3313,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2F5985-5E01-754D-9364-AD3FE8C51739}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>125</v>
       </c>
@@ -3273,7 +3339,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -3293,7 +3359,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -3313,7 +3379,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -3333,7 +3399,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>96</v>
       </c>
@@ -3353,7 +3419,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>70</v>
       </c>
@@ -3373,7 +3439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>145</v>
       </c>
@@ -3387,7 +3453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>104</v>
       </c>
@@ -3398,7 +3464,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D9" t="s">
         <v>67</v>
       </c>
@@ -3406,7 +3472,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D10" t="s">
         <v>68</v>
       </c>
@@ -3414,7 +3480,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D11" t="s">
         <v>69</v>
       </c>
@@ -3422,7 +3488,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D12" t="s">
         <v>74</v>
       </c>
@@ -3430,7 +3496,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D13" t="s">
         <v>78</v>
       </c>
@@ -3438,7 +3504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="D14" t="s">
         <v>83</v>
       </c>
